--- a/soberano/test_cases/acquirable_material_record_test_cases.xlsx
+++ b/soberano/test_cases/acquirable_material_record_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t xml:space="preserve">TC Number</t>
   </si>
@@ -43,27 +43,21 @@
     <t xml:space="preserve">test constrained (for input validation) form components</t>
   </si>
   <si>
-    <t xml:space="preserve">code empty</t>
+    <t xml:space="preserve">name empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit empty</t>
   </si>
   <si>
     <t xml:space="preserve">material1</t>
   </si>
   <si>
-    <t xml:space="preserve">piece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative inventory level</t>
-  </si>
-  <si>
     <t xml:space="preserve">User1 is allowed to record acquirable material</t>
   </si>
   <si>
@@ -91,7 +85,7 @@
     <t xml:space="preserve">material3</t>
   </si>
   <si>
-    <t xml:space="preserve">gram</t>
+    <t xml:space="preserve">pound</t>
   </si>
   <si>
     <t xml:space="preserve">User5 is allowed to record acquirable material</t>
@@ -106,7 +100,7 @@
     <t xml:space="preserve">material4</t>
   </si>
   <si>
-    <t xml:space="preserve">miligram</t>
+    <t xml:space="preserve">milligram</t>
   </si>
   <si>
     <t xml:space="preserve">User7 is allowed to record acquirable material</t>
@@ -121,9 +115,6 @@
     <t xml:space="preserve">material5</t>
   </si>
   <si>
-    <t xml:space="preserve">pound</t>
-  </si>
-  <si>
     <t xml:space="preserve">User9 is allowed to record acquirable material</t>
   </si>
   <si>
@@ -151,7 +142,7 @@
     <t xml:space="preserve">material7</t>
   </si>
   <si>
-    <t xml:space="preserve">liter</t>
+    <t xml:space="preserve">milliliter</t>
   </si>
   <si>
     <t xml:space="preserve">User13 is allowed to record acquirable material</t>
@@ -166,9 +157,6 @@
     <t xml:space="preserve">material8</t>
   </si>
   <si>
-    <t xml:space="preserve">milliliter</t>
-  </si>
-  <si>
     <t xml:space="preserve">User15 is allowed to record acquirable material</t>
   </si>
   <si>
@@ -184,30 +172,6 @@
     <t xml:space="preserve">User17 is allowed to record acquirable material</t>
   </si>
   <si>
-    <t xml:space="preserve">User18 is NOT allowed to record acquirable material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">material91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User19 is allowed to record acquirable material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User20 is NOT allowed to record acquirable material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">material92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User21 is NOT allowed to record acquirable material</t>
-  </si>
-  <si>
     <t xml:space="preserve">User1 tries to record another acquirable material with the same code and fails</t>
   </si>
   <si>
@@ -245,9 +209,6 @@
   </si>
   <si>
     <t xml:space="preserve">check m9 data is correctly shown in details panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check m91 data is correctly shown in details panel</t>
   </si>
 </sst>
 </file>
@@ -390,10 +351,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ39"/>
+  <dimension ref="A1:AMJ32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="24:24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -458,7 +419,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -476,10 +437,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>1</v>
@@ -493,10 +454,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>1</v>
@@ -510,16 +474,16 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -527,19 +491,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -547,19 +511,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -567,19 +531,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,19 +551,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -607,19 +571,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,19 +591,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -647,19 +611,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,19 +631,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -687,19 +651,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E15" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -707,19 +671,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,19 +691,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E17" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,19 +711,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="F18" s="2" t="n">
-        <v>100</v>
+        <v>100.00001</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,19 +731,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E19" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>100</v>
+        <v>100.00001</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,19 +751,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>100.00001</v>
+        <v>400.00004</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,16 +774,16 @@
         <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>100.00001</v>
+        <v>400.00004</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,16 +794,16 @@
         <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E22" s="8" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>400.00004</v>
+        <v>12800.00128</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,19 +811,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>400.00004</v>
+        <v>12800.00128</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -869,37 +833,13 @@
       <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>1600.00016</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>1600.00016</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,19 +847,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>6400.00064</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,19 +855,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>6400.00064</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -947,19 +863,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>12800.00128</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,19 +871,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>12800.00128</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,7 +879,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -995,7 +887,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,63 +895,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/soberano/test_cases/acquirable_material_record_test_cases.xlsx
+++ b/soberano/test_cases/acquirable_material_record_test_cases.xlsx
@@ -353,8 +353,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="24:24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
